--- a/data/trans_camb/P24_2_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P24_2_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,52</t>
+          <t>-1,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,35</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,61</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,54</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>4,3</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>5,36</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,33</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>4,94</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>-1,39</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,22</t>
+          <t>3,27</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>2,29</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,94</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>2,78</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 2,27</t>
+          <t>-5,05; 2,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 3,0</t>
+          <t>-5,44; 1,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 4,07</t>
+          <t>-4,18; 4,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 8,57</t>
+          <t>-2,3; 9,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,08; 9,77</t>
+          <t>-4,53; 10,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 10,63</t>
+          <t>-4,63; 9,91</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 11,03</t>
+          <t>-2,93; 10,45</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,79; 20,1</t>
+          <t>-1,78; 11,28</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 5,03</t>
+          <t>-1,43; 11,07</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 5,34</t>
+          <t>6,73; 23,7</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 6,51</t>
+          <t>-11,4; 8,94</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>1,65; 12,01</t>
+          <t>-7,54; 14,04</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,98; 4,64</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-1,95; 5,35</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 6,14</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>4,3; 14,7</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>-5,84; 6,87</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>-3,5; 9,26</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-40,46%</t>
+          <t>-41,42%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-35,83%</t>
+          <t>-49,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-16,26%</t>
+          <t>-17,2%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>67,52%</t>
+          <t>64,97%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>30,35%</t>
+          <t>41,81%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>51,07%</t>
+          <t>39,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>63,64%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>122,7%</t>
+          <t>55,4%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>58,76%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>25,71%</t>
+          <t>178,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>41,89%</t>
+          <t>-5,95%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>104,16%</t>
+          <t>17,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>11,05%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,37%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>38,31%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>149,79%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>0,41%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>22,82%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 162,53</t>
+          <t>-91,22; 191,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-89,62; 240,85</t>
+          <t>-90,3; 177,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-84,9; 306,23</t>
+          <t>-80,95; 299,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-50,18; 505,31</t>
+          <t>-52,52; 498,61</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-37,1; 173,16</t>
+          <t>-54,48; 453,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,11; 192,87</t>
+          <t>-52,46; 320,93</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,0; 190,73</t>
+          <t>-29,22; 181,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,88; 350,94</t>
+          <t>-17,31; 203,04</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-38,68; 106,94</t>
+          <t>-15,42; 206,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-27,91; 117,0</t>
+          <t>60,26; 411,27</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 149,39</t>
+          <t>-41,49; 50,03</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,24; 263,71</t>
+          <t>-31,46; 111,42</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-41,56; 106,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 130,24</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-18,77; 144,13</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>54,01; 357,45</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>-33,77; 61,12</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>-23,8; 114,16</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>4,65</t>
+          <t>5,39</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,29</t>
+          <t>8,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,68</t>
+          <t>11,62</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>5,69</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,94</t>
+          <t>10,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>7,01</t>
+          <t>1,54</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,63</t>
+          <t>6,14</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>6,94</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>15,26</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>7,64</t>
+          <t>-2,17</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>2,46</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,54</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,02</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>7,5</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>13,26</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>2,03</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>6,66</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 17,37</t>
+          <t>-0,59; 17,91</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 9,48</t>
+          <t>0,06; 9,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 18,69</t>
+          <t>2,63; 17,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,24; 14,01</t>
+          <t>4,42; 25,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 9,0</t>
+          <t>-8,71; 17,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,39; 11,92</t>
+          <t>0,33; 21,31</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 12,73</t>
+          <t>-3,85; 7,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,35; 17,88</t>
+          <t>0,46; 11,84</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 9,59</t>
+          <t>1,2; 12,57</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1,38; 8,52</t>
+          <t>8,19; 22,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 12,52</t>
+          <t>-11,23; 6,96</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 13,16</t>
+          <t>-6,6; 10,62</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 10,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 9,02</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>3,62; 13,06</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>7,84; 21,69</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>-7,07; 9,63</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 14,39</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>137,93%</t>
+          <t>160,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>127,4%</t>
+          <t>120,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>246,19%</t>
+          <t>240,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>198,3%</t>
+          <t>344,89%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,37%</t>
+          <t>37,97%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>79,48%</t>
+          <t>105,74%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>20,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>142,11%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>64,96%</t>
+          <t>92,82%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>94,55%</t>
+          <t>204,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>143,16%</t>
+          <t>-9,54%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>161,59%</t>
+          <t>13,59%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>66,39%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>93,99%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>140,47%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>248,3%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>10,91%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>47,64%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-25,26; 1093,38</t>
+          <t>-22,51; 1010,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-14,04; 534,74</t>
+          <t>-10,18; 618,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,16; 895,94</t>
+          <t>39,87; 1129,54</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12,31; 723,99</t>
+          <t>70,86; 1611,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,36; 170,82</t>
+          <t>-43,97; 181,99</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 245,91</t>
+          <t>-3,17; 345,47</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,14; 244,59</t>
+          <t>-40,23; 152,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>38,79; 340,9</t>
+          <t>0,94; 226,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,62; 249,87</t>
+          <t>10,7; 264,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 221,52</t>
+          <t>78,43; 487,77</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>43,12; 313,41</t>
+          <t>-41,35; 41,22</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>52,79; 336,62</t>
+          <t>-28,83; 79,62</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-13,19; 240,51</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>20,04; 226,02</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>48,01; 331,22</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>102,73; 477,24</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>-31,91; 64,97</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>-1,86; 131,09</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>5,59</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,83</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,97</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>3,45</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>4,62</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>3,34</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1,64</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 9,26</t>
+          <t>-3,68; 9,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 11,91</t>
+          <t>-0,52; 11,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 5,66</t>
+          <t>-5,43; 5,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 11,17</t>
+          <t>-2,8; 9,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 8,27</t>
+          <t>-6,16; 7,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 6,11</t>
+          <t>-7,53; 6,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 5,28</t>
+          <t>-4,82; 5,7</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 10,3</t>
+          <t>-4,11; 6,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,77</t>
+          <t>-4,33; 5,46</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 7,31</t>
+          <t>0,0; 12,07</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 3,88</t>
+          <t>-3,95; 10,56</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 9,53</t>
+          <t>-2,84; 11,66</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 5,86</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 7,29</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 4,58</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 8,91</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>-3,06; 7,11</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 6,1</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>33,97%</t>
+          <t>41,12%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>71,93%</t>
+          <t>71,29%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>10,78%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>71,5%</t>
+          <t>47,86%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>11,26%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>37,54%</t>
+          <t>9,91%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>33,51%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>49,97%</t>
+          <t>28,68%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>16,87%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>34,08%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>7,06%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>48,15%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>11,28%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>9,89%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1790,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-37,85; 167,28</t>
+          <t>-38,18; 176,29</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 232,27</t>
+          <t>-11,24; 225,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-48,39; 113,54</t>
+          <t>-47,42; 112,37</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,62; 211,42</t>
+          <t>-28,9; 192,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-29,1; 92,22</t>
+          <t>-42,69; 84,69</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 70,47</t>
+          <t>-47,97; 64,69</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-31,45; 55,57</t>
+          <t>-34,58; 64,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 103,99</t>
+          <t>-26,85; 67,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-19,47; 85,46</t>
+          <t>-30,69; 60,91</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 88,92</t>
+          <t>-3,45; 124,68</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-25,52; 49,07</t>
+          <t>-19,6; 75,26</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 117,99</t>
+          <t>-16,04; 88,66</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-22,91; 69,85</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-3,96; 91,14</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-24,61; 59,09</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 110,62</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>-18,48; 59,42</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>-19,96; 48,94</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,46</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>3,9</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1,61</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,52</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,22</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>-0,99</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2,45</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-1,95</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>3,84</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>2,21</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>4,03</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>2,78</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>9,24</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>1,82</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>3,88</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>10,13</t>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>4,53</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>4,19</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>-1,42</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,97</t>
+          <t>-2,75; 5,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,37; 8,55</t>
+          <t>-0,38; 8,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 6,87</t>
+          <t>-2,46; 6,6</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>5,49; 19,3</t>
+          <t>-1,52; 7,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-3,01; 7,15</t>
+          <t>1,06; 14,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 8,86</t>
+          <t>-9,15; 7,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 7,98</t>
+          <t>-2,46; 7,68</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,76; 15,68</t>
+          <t>-0,58; 9,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 5,65</t>
+          <t>-2,08; 8,37</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0,31; 7,43</t>
+          <t>0,21; 11,63</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 5,46</t>
+          <t>-5,44; 7,74</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 14,66</t>
+          <t>-8,97; 5,43</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 5,17</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>0,57; 7,44</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 5,45</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>1,11; 8,24</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 8,75</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>-6,77; 3,88</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>24,45%</t>
+          <t>22,14%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>65,29%</t>
+          <t>60,92%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>26,93%</t>
+          <t>26,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>193,1%</t>
+          <t>55,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,24%</t>
+          <t>77,8%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>33,31%</t>
+          <t>-5,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,97%</t>
+          <t>20,23%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>76,32%</t>
+          <t>34,84%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>19,81%</t>
+          <t>24,99%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>42,23%</t>
+          <t>49,61%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>22,85%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>110,33%</t>
+          <t>-9,12%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>20,05%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>24,12%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>49,36%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>30,53%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
         </is>
       </c>
     </row>
@@ -1688,62 +2186,92 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 145,7</t>
+          <t>-37,31; 127,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-7,29; 203,71</t>
+          <t>-9,2; 199,49</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 171,31</t>
+          <t>-32,2; 165,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>70,23; 502,54</t>
+          <t>-20,59; 166,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-21,09; 72,39</t>
+          <t>4,73; 198,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 91,67</t>
+          <t>-42,65; 61,16</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,84; 82,04</t>
+          <t>-17,48; 79,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,71; 152,93</t>
+          <t>-5,5; 97,49</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-13,53; 74,58</t>
+          <t>-14,16; 89,34</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,97; 98,51</t>
+          <t>0,33; 116,96</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 70,93</t>
+          <t>-26,33; 51,73</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>52,34; 193,2</t>
+          <t>-36,36; 31,64</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-12,65; 68,86</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>3,82; 91,12</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-8,98; 70,63</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>9,31; 106,93</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>-3,9; 72,04</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>-31,76; 23,16</t>
         </is>
       </c>
     </row>
@@ -1760,62 +2288,92 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,1</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>3,99</t>
+          <t>4,25</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,94</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,64</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>7,57</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>3,86</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>10,41</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>3,96</t>
+          <t>2,14</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>8,8</t>
+          <t>-1,39</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>4,0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,44</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>2,41</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>7,19</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
         </is>
       </c>
     </row>
@@ -1828,62 +2386,92 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,82</t>
+          <t>-2,19; 6,1</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 8,42</t>
+          <t>-0,24; 8,52</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 5,39</t>
+          <t>-3,2; 4,26</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>1,44; 12,17</t>
+          <t>-2,08; 6,69</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 6,22</t>
+          <t>1,45; 13,43</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,66; 10,17</t>
+          <t>-3,71; 9,73</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 11,97</t>
+          <t>-5,32; 6,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 17,45</t>
+          <t>-2,77; 9,89</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,91</t>
+          <t>-0,34; 12,02</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0,09; 7,81</t>
+          <t>-3,63; 9,68</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 7,22</t>
+          <t>-0,01; 14,4</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>4,85; 13,03</t>
+          <t>-8,94; 5,97</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 5,1</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 7,6</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 7,14</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>-1,72; 6,77</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1,96; 11,95</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>-5,19; 5,81</t>
         </is>
       </c>
     </row>
@@ -1896,62 +2484,92 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>93,8%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>14,46%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>146,69%</t>
+          <t>53,27%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>109,05%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>32,88%</t>
+          <t>29,9%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>49,35%</t>
+          <t>3,75%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>88,74%</t>
+          <t>31,42%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>48,94%</t>
+          <t>18,24%</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>43,24%</t>
+          <t>49,62%</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>108,68%</t>
+          <t>-6,26%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>16,82%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>49,4%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>42,42%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>29,71%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>68,45%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>4,72%</t>
         </is>
       </c>
     </row>
@@ -1964,62 +2582,92 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 257,82</t>
+          <t>-37,37; 209,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-14,62; 308,55</t>
+          <t>-6,91; 319,94</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-48,9; 223,21</t>
+          <t>-53,01; 159,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>18,78; 446,79</t>
+          <t>-35,08; 221,13</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-40,76; 66,53</t>
+          <t>12,5; 283,67</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-18,72; 109,94</t>
+          <t>-27,15; 121,79</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-6,79; 144,25</t>
+          <t>-36,86; 74,57</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>20,99; 190,12</t>
+          <t>-19,74; 120,78</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,69; 76,52</t>
+          <t>-5,6; 128,78</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 123,07</t>
+          <t>-27,12; 110,26</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 112,62</t>
+          <t>-1,63; 149,06</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>47,75; 195,26</t>
+          <t>-35,21; 33,93</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-23,2; 74,59</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-1,9; 114,12</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 108,48</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>-17,15; 103,32</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>15,48; 145,47</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>-25,15; 40,75</t>
         </is>
       </c>
     </row>
@@ -2036,62 +2684,92 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>4,95</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>3,41</t>
+          <t>3,42</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>5,38</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,28</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>1,31</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>4,91</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>3,32</t>
+          <t>10,38</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
+          <t>7,65</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>13,14</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
           <t>2,85</t>
         </is>
       </c>
-      <c r="N24" s="2" t="inlineStr">
-        <is>
-          <t>3,82</t>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>3,45</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>7,33</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6,92</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>10,43</t>
         </is>
       </c>
     </row>
@@ -2104,62 +2782,92 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 17,37</t>
+          <t>-0,38; 15,93</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 8,45</t>
+          <t>-0,77; 9,4</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 8,82</t>
+          <t>-0,57; 9,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 7,83</t>
+          <t>-1,31; 9,64</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 6,29</t>
+          <t>-1,49; 12,73</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-2,38; 9,08</t>
+          <t>0,01; 14,04</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,06; 8,13</t>
+          <t>-4,83; 6,7</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 14,35</t>
+          <t>-2,06; 9,54</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-1,44; 8,2</t>
+          <t>-2,78; 8,44</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 7,28</t>
+          <t>2,33; 21,19</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 7,15</t>
+          <t>-4,73; 17,89</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 9,38</t>
+          <t>2,5; 22,68</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-1,38; 8,35</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-0,67; 7,79</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 7,11</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>2,82; 14,16</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>-1,1; 14,03</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>3,8; 17,08</t>
         </is>
       </c>
     </row>
@@ -2172,62 +2880,92 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>123,89%</t>
+          <t>119,36%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>82,41%</t>
+          <t>82,54%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>89,71%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>54,57%</t>
+          <t>85,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>70,05%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>29,92%</t>
+          <t>103,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>20,54%</t>
+          <t>11,89%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>31,97%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>31,69%</t>
+          <t>22,07%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>41,28%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>35,34%</t>
+          <t>35,82%</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>47,41%</t>
+          <t>82,75%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>35,45%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>42,81%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>37,51%</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>90,98%</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>44,96%</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>87,95%</t>
         </is>
       </c>
     </row>
@@ -2240,62 +2978,92 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-19,94; 645,95</t>
+          <t>-22,82; 651,72</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-38,17; 309,74</t>
+          <t>-24,47; 370,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-21,38; 350,34</t>
+          <t>-15,69; 429,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-48,47; 340,78</t>
+          <t>-29,75; 400,21</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-39,87; 71,68</t>
+          <t>-18,96; 271,24</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-18,04; 103,59</t>
+          <t>-6,31; 406,55</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 97,81</t>
+          <t>-36,17; 76,7</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-16,31; 160,28</t>
+          <t>-16,53; 112,76</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-16,05; 128,93</t>
+          <t>-21,63; 111,86</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>-5,56; 112,37</t>
+          <t>13,37; 235,15</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>-9,18; 115,72</t>
+          <t>-16,43; 115,17</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>-5,17; 143,29</t>
+          <t>10,0; 194,03</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-16,2; 118,09</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-8,15; 118,94</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-8,18; 108,28</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>26,65; 220,96</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>-5,71; 117,16</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>22,81; 197,56</t>
         </is>
       </c>
     </row>
@@ -2312,62 +3080,92 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>2,49</t>
+          <t>2,66</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>3,47</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,52</t>
+          <t>2,45</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>3,58</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>3,62</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
+          <t>8,74</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>3,02</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>3,8</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>2,02</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
           <t>3,51</t>
         </is>
       </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>3,06</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>7,01</t>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>3,04</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>3,72</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
         </is>
       </c>
     </row>
@@ -2380,62 +3178,92 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>0,46; 5,44</t>
+          <t>0,37; 5,63</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>1,52; 5,6</t>
+          <t>1,43; 5,53</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,59; 5,11</t>
+          <t>0,39; 4,72</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>3,75; 8,68</t>
+          <t>2,29; 7,83</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 3,95</t>
+          <t>1,11; 7,82</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>1,26; 5,84</t>
+          <t>-0,13; 6,16</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>1,34; 5,92</t>
+          <t>-0,91; 3,68</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,1</t>
+          <t>1,22; 5,95</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,28; 3,82</t>
+          <t>1,38; 6,09</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,99</t>
+          <t>6,02; 11,74</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>1,49; 4,73</t>
+          <t>-0,83; 6,57</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>5,18; 9,11</t>
+          <t>0,09; 7,26</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 3,93</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>2,01; 4,93</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 4,72</t>
+        </is>
+      </c>
+      <c r="R29" s="2" t="inlineStr">
+        <is>
+          <t>4,82; 9,03</t>
+        </is>
+      </c>
+      <c r="S29" s="2" t="inlineStr">
+        <is>
+          <t>0,95; 6,38</t>
+        </is>
+      </c>
+      <c r="T29" s="2" t="inlineStr">
+        <is>
+          <t>0,9; 5,84</t>
         </is>
       </c>
     </row>
@@ -2448,62 +3276,92 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>49,12%</t>
+          <t>52,35%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>68,38%</t>
+          <t>65,36%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>49,57%</t>
+          <t>48,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>121,45%</t>
+          <t>90,71%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>47,62%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>33,34%</t>
+          <t>27,1%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>33,74%</t>
+          <t>13,31%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>34,87%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>24,81%</t>
+          <t>34,08%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>44,32%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>38,69%</t>
+          <t>15,61%</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>88,62%</t>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>25,56%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>44,41%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>38,48%</t>
+        </is>
+      </c>
+      <c r="R30" s="2" t="inlineStr">
+        <is>
+          <t>85,02%</t>
+        </is>
+      </c>
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>25,4%</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>23,0%</t>
         </is>
       </c>
     </row>
@@ -2516,78 +3374,115 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>6,55; 123,49</t>
+          <t>4,67; 126,07</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>23,39; 140,53</t>
+          <t>22,37; 126,94</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>8,32; 122,64</t>
+          <t>6,59; 108,8</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>59,34; 207,54</t>
+          <t>38,8; 183,97</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-9,17; 41,39</t>
+          <t>7,2; 94,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>11,24; 62,0</t>
+          <t>-2,07; 61,11</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>10,51; 61,88</t>
+          <t>-8,05; 39,51</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>40,97; 116,96</t>
+          <t>9,34; 63,26</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2,87; 51,45</t>
+          <t>10,77; 64,8</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>23,1; 69,39</t>
+          <t>49,42; 123,42</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>17,1; 66,28</t>
+          <t>-3,84; 36,85</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>60,32; 125,43</t>
+          <t>0,63; 42,69</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 53,36</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>22,74; 68,42</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>17,78; 64,67</t>
+        </is>
+      </c>
+      <c r="R31" s="2" t="inlineStr">
+        <is>
+          <t>54,75; 125,15</t>
+        </is>
+      </c>
+      <c r="S31" s="2" t="inlineStr">
+        <is>
+          <t>5,57; 47,48</t>
+        </is>
+      </c>
+      <c r="T31" s="2" t="inlineStr">
+        <is>
+          <t>5,33; 42,09</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
